--- a/TaskManager.xlsx
+++ b/TaskManager.xlsx
@@ -1,93 +1,518 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktc\Documents\Github\behaviour-tree-programming-juugyou\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F68806-F25F-4361-A4D8-9A5B84972D89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="11450" xr2:uid="{DF1250C2-4665-4652-B22A-34E602E297F0}"/>
+    <workbookView windowWidth="24750" windowHeight="11550"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概要" sheetId="1" r:id="rId1"/>
+    <sheet name="タスク" sheetId="2" r:id="rId2"/>
+    <sheet name="設定" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+  <si>
+    <t>提出締切</t>
+  </si>
+  <si>
+    <t>残り時間</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残り時間</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>提出締切</t>
-    <rPh sb="0" eb="2">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シメキリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェフとれヴォルアーチ</t>
+  </si>
+  <si>
+    <t>課題：</t>
+  </si>
+  <si>
+    <t>戦闘シーンのみ</t>
+  </si>
+  <si>
+    <t>プレイヤー（イメルダ ベルペーゼ）の挙動</t>
+  </si>
+  <si>
+    <t>武器（魔法の杖）の挙動</t>
+  </si>
+  <si>
+    <t>敵の挙動（プレイヤーに向かってくる雑魚一種類）</t>
+  </si>
+  <si>
+    <t>アイテム、レベルアップ、固有スキルなどは無し</t>
+  </si>
+  <si>
+    <t>プレイヤーと敵と武器（弾）が動き、</t>
+  </si>
+  <si>
+    <t>プレイヤーと敵が攻撃しあい、</t>
+  </si>
+  <si>
+    <t>ゲームクリア or ゲームオーバーになるまでを実装する</t>
+  </si>
+  <si>
+    <t>状態</t>
+  </si>
+  <si>
+    <t>タスク名前</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>始まる日</t>
+  </si>
+  <si>
+    <t>終了日（予定）</t>
+  </si>
+  <si>
+    <t>STANDBY</t>
+  </si>
+  <si>
+    <t>プレイヤー動き</t>
+  </si>
+  <si>
+    <t>マウス・回転</t>
+  </si>
+  <si>
+    <t>玉を撃て</t>
+  </si>
+  <si>
+    <t>敵追いかけ</t>
+  </si>
+  <si>
+    <t>敵が死ぬ</t>
+  </si>
+  <si>
+    <t>ONGOING</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
+    <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic UI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -95,40 +520,583 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF8B8B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF71F828"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFA5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF86F450"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="004DD60C"/>
+      <color rgb="00FFA5A5"/>
+      <color rgb="00F85208"/>
+      <color rgb="00FF8B8B"/>
+      <color rgb="0071F828"/>
+      <color rgb="0086F450"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -177,7 +1145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -210,26 +1178,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -262,23 +1213,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,63 +1354,623 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6454DFB-B8AD-4925-B1F1-E1BB92CCF1F5}">
-  <dimension ref="B1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="12.58203125" customWidth="1"/>
-    <col min="4" max="4" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.9090909090909" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.4181818181818" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" t="s">
+    <row r="1" ht="18.25" spans="2:7">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10">
+        <v>46010</v>
+      </c>
+      <c r="D1" s="11">
+        <v>0.999305555555556</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" ht="18.25" spans="2:5">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="str">
+        <f ca="1">_xlfn.CONCAT(C1-TODAY()," Day(s)")</f>
+        <v>4 Day(s)</v>
+      </c>
+      <c r="D2" s="15">
+        <f ca="1">C1+D1-NOW()</f>
+        <v>4.11538194444438</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2">
-        <v>46010</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4">
-        <f ca="1">NOW()</f>
-        <v>46004.615942824072</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f ca="1">_xlfn.CONCAT(C1-TODAY(), " Day(s)")</f>
-        <v>6 Day(s)</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" ht="35.75" spans="2:3">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="18.25"/>
+    <row r="5" spans="2:3">
+      <c r="B5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" ht="18.25" spans="2:3">
+      <c r="B13" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="20.0909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.0909090909091" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3636363636364" style="1"/>
+    <col min="8" max="16384" width="8.72727272727273" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="18.25" spans="12:12">
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" ht="18.25" spans="2:11">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3">
+        <v>46006</v>
+      </c>
+      <c r="H3" s="3">
+        <f>G3+1</f>
+        <v>46007</v>
+      </c>
+      <c r="I3" s="3">
+        <f>H3+1</f>
+        <v>46008</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3+1</f>
+        <v>46009</v>
+      </c>
+      <c r="K3" s="3">
+        <f>J3+1</f>
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="4" ht="18.25" spans="2:11">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F4" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" ht="18.25" spans="2:11">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F5" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" ht="18.25" spans="2:11">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F6" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" ht="18.25" spans="2:11">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F7" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" ht="18.25" spans="2:11">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F8" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" ht="18.25" spans="2:11">
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F9" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" ht="18.25" spans="2:11">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F10" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" ht="18.25" spans="2:11">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F11" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" ht="18.25" spans="2:11">
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F12" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" ht="18.25" spans="2:11">
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F13" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" ht="18.25" spans="2:11">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F14" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" ht="18.25" spans="2:11">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F15" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" ht="18.25" spans="2:11">
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F16" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" ht="18.25" spans="2:11">
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F17" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" ht="18.25" spans="2:11">
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F18" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" ht="18.25" spans="2:11">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F19" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" ht="18.25" spans="2:11">
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F20" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" ht="18.25" spans="2:11">
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F21" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" ht="18.25" spans="2:11">
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F22" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" ht="18.25" spans="2:11">
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7">
+        <v>46006</v>
+      </c>
+      <c r="F23" s="7">
+        <v>46010</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B23">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"STANDBY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"ONGOING"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:K23">
+    <cfRule type="expression" dxfId="3" priority="6">
+      <formula>AND($B4="STANDBY",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND($B4="ONGOING",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND($B4="DONE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4:B23">
+      <formula1>設定!$B$4:$B$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TaskManager.xlsx
+++ b/TaskManager.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11550"/>
+    <workbookView windowWidth="24750" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="タスク" sheetId="2" r:id="rId2"/>
-    <sheet name="設定" sheetId="3" r:id="rId3"/>
+    <sheet name="タスク-実装" sheetId="4" r:id="rId3"/>
+    <sheet name="設定" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>提出締切</t>
   </si>
@@ -91,6 +92,9 @@
     <t>STANDBY</t>
   </si>
   <si>
+    <t>レベルデザイン（カメラ・壁・床）</t>
+  </si>
+  <si>
     <t>プレイヤー動き</t>
   </si>
   <si>
@@ -103,13 +107,34 @@
     <t>敵追いかけ</t>
   </si>
   <si>
+    <t>state machine</t>
+  </si>
+  <si>
     <t>敵が死ぬ</t>
   </si>
   <si>
+    <t>プレイヤー死ぬ</t>
+  </si>
+  <si>
+    <t>ゲームオーバー・ゲームクリア UI</t>
+  </si>
+  <si>
+    <t>GameManager</t>
+  </si>
+  <si>
+    <t>5分超えて、ゲームクリア</t>
+  </si>
+  <si>
+    <t>敵がどんどん来る　SpawnSystem</t>
+  </si>
+  <si>
+    <t>終了日（実装）</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
     <t>ONGOING</t>
-  </si>
-  <si>
-    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -908,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,9 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1043,7 +1065,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF8B8B"/>
+          <bgColor rgb="FF71F828"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1057,14 +1079,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF71F828"/>
+          <bgColor rgb="FFFF8B8B"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFA5A5"/>
+          <bgColor rgb="FF86F450"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1078,7 +1100,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF86F450"/>
+          <bgColor rgb="FFFFA5A5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1362,7 +1384,7 @@
   <sheetPr/>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1378,97 +1400,95 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.25" spans="2:7">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="9">
         <v>46010</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="10">
         <v>0.999305555555556</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" ht="18.25" spans="2:5">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="13" t="str">
         <f ca="1">_xlfn.CONCAT(C1-TODAY()," Day(s)")</f>
-        <v>4 Day(s)</v>
-      </c>
-      <c r="D2" s="15">
+        <v>3 Day(s)</v>
+      </c>
+      <c r="D2" s="14">
         <f ca="1">C1+D1-NOW()</f>
-        <v>4.11538194444438</v>
-      </c>
-      <c r="E2" s="16" t="s">
+        <v>3.96572916666628</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="35.75" spans="2:3">
-      <c r="B3" s="17" t="s">
+    <row r="3" ht="18.25" spans="2:3">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="18.25"/>
     <row r="5" spans="2:3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" ht="18.25" spans="2:3">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,10 +1499,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L23"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17.5"/>
@@ -1490,14 +1510,15 @@
     <col min="1" max="1" width="8.72727272727273" style="1"/>
     <col min="2" max="2" width="20.0909090909091" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.0909090909091" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1818181818182" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54545454545454" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6363636363636" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.3636363636364" style="1"/>
     <col min="8" max="16384" width="8.72727272727273" style="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="18.25" spans="12:12">
-      <c r="L2" s="8"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" ht="18.25" spans="2:11">
       <c r="B3" s="2" t="s">
@@ -1542,394 +1563,265 @@
       <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7">
+      <c r="D4" s="5"/>
+      <c r="E4" s="6">
         <v>46006</v>
       </c>
-      <c r="F4" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="F4" s="6">
+        <v>46007</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" ht="18.25" spans="2:11">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F5" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F5" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" ht="18.25" spans="2:11">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F6" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F6" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" ht="18.25" spans="2:11">
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F7" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F7" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" ht="18.25" spans="2:11">
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F8" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F8" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" ht="18.25" spans="2:11">
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F9" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F9" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" ht="18.25" spans="2:11">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F10" s="6">
         <v>46010</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" ht="18.25" spans="2:11">
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F11" s="6">
         <v>46010</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" ht="18.25" spans="2:11">
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F12" s="6">
         <v>46010</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" ht="18.25" spans="2:11">
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F13" s="6">
         <v>46010</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" ht="18.25" spans="2:11">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F14" s="6">
         <v>46010</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" ht="18.25" spans="2:11">
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F15" s="6">
         <v>46010</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" ht="18.25" spans="2:11">
-      <c r="B16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F16" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" ht="18.25" spans="2:11">
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F17" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" ht="18.25" spans="2:11">
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F18" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" ht="18.25" spans="2:11">
-      <c r="B19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F19" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" ht="18.25" spans="2:11">
-      <c r="B20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F20" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" ht="18.25" spans="2:11">
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F21" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" ht="18.25" spans="2:11">
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F22" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" ht="18.25" spans="2:11">
-      <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7">
-        <v>46006</v>
-      </c>
-      <c r="F23" s="7">
-        <v>46010</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B23">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"STANDBY"</formula>
+  <sheetProtection algorithmName="SHA-512" hashValue="rLa9WIXV+ZhXFe4SFv1fDvq+uU527oOACKFgguIKO0G6oNc3ohgEUKvnCoFvJ5Ax5eo4LiCS5lEqDb0M1Y8q1Q==" saltValue="CIqr7nqcXApHL9tl79amHw==" spinCount="100000" sheet="1" objects="1"/>
+  <conditionalFormatting sqref="B4:B15">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"DONE"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"ONGOING"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"DONE"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"STANDBY"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:K23">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>AND($B4="STANDBY",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+  <conditionalFormatting sqref="G4:K15">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($B4="DONE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND($B4="ONGOING",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND($B4="DONE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND($B4="STANDBY",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4:B23">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B5:B6 B7:B15">
       <formula1>設定!$B$4:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -1939,6 +1831,339 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17.5"/>
+  <cols>
+    <col min="1" max="1" width="8.72727272727273" style="1"/>
+    <col min="2" max="2" width="20.0909090909091" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1818181818182" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54545454545454" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6363636363636" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3636363636364" style="1"/>
+    <col min="8" max="16384" width="8.72727272727273" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="18.25" spans="12:12">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" ht="18.25" spans="2:11">
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3">
+        <v>46006</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:K3" si="0">G3+1</f>
+        <v>46007</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>46008</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>46009</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>46010</v>
+      </c>
+    </row>
+    <row r="4" ht="18.25" spans="2:11">
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6">
+        <v>46006</v>
+      </c>
+      <c r="F4" s="6">
+        <v>46006</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" ht="18.25" spans="2:11">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F5" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" ht="18.25" spans="2:11">
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F6" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" ht="18.25" spans="2:11">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F7" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" ht="18.25" spans="2:11">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F8" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" ht="18.25" spans="2:11">
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F9" s="6">
+        <v>46009</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" ht="18.25" spans="2:11">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F10" s="6">
+        <v>46010</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" ht="18.25" spans="2:11">
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F11" s="6">
+        <v>46010</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" ht="18.25" spans="2:11">
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F12" s="6">
+        <v>46010</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" ht="18.25" spans="2:11">
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F13" s="6">
+        <v>46010</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" ht="18.25" spans="2:11">
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6">
+        <v>46008</v>
+      </c>
+      <c r="F14" s="6">
+        <v>46010</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" ht="18.25" spans="2:11">
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6">
+        <v>46007</v>
+      </c>
+      <c r="F15" s="6">
+        <v>46010</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B15">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"STANDBY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"ONGOING"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:K15">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND($B4="STANDBY",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>AND($B4="ONGOING",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($B4="DONE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B5:B6 B7:B15">
+      <formula1>設定!$B$4:$B$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B3:B6"/>
@@ -1961,16 +2186,34 @@
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="2" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="4" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="3" master="" otherUserPermission="visible"/>
+</allowEditUser>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TaskManager.xlsx
+++ b/TaskManager.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktc\Documents\GitHub\behaviour-tree-programming-juugyou\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6B4537-BDA7-47CC-BC14-65F041C9E149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -13,24 +19,11 @@
     <sheet name="設定" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>提出締切</t>
   </si>
@@ -140,22 +133,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="178" formatCode="m/d;@"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -163,6 +152,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -170,6 +160,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -177,161 +168,18 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Yu Gothic UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,204 +188,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.4"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -685,251 +347,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1010,62 +430,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF71F828"/>
+          <bgColor rgb="FFFFA5A5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1079,7 +451,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FF86F450"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFF8B8B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF71F828"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFA5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1093,6 +500,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF8B8B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -1100,7 +514,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFA5A5"/>
+          <bgColor rgb="FF71F828"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1108,17 +522,20 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="004DD60C"/>
-      <color rgb="00FFA5A5"/>
-      <color rgb="00F85208"/>
-      <color rgb="00FF8B8B"/>
-      <color rgb="0071F828"/>
-      <color rgb="0086F450"/>
+      <color rgb="FF4DD60C"/>
+      <color rgb="FFFFA5A5"/>
+      <color rgb="FFF85208"/>
+      <color rgb="FFFF8B8B"/>
+      <color rgb="FF71F828"/>
+      <color rgb="FF86F450"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1376,30 +793,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.9090909090909" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7272727272727" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.4181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.25" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1412,23 +829,23 @@
       <c r="F1" s="11"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" ht="18.25" spans="2:5">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="str">
         <f ca="1">_xlfn.CONCAT(C1-TODAY()," Day(s)")</f>
-        <v>3 Day(s)</v>
+        <v>2 Day(s)</v>
       </c>
       <c r="D2" s="14">
         <f ca="1">C1+D1-NOW()</f>
-        <v>3.96572916666628</v>
+        <v>2.2541927083293558</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="18.25" spans="2:3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
@@ -1436,91 +853,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="21"/>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="21"/>
     </row>
-    <row r="13" ht="18.25" spans="2:3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="24"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="1"/>
-    <col min="2" max="2" width="20.0909090909091" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1818181818182" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6363636363636" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3636363636364" style="1"/>
-    <col min="8" max="16384" width="8.72727272727273" style="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.25" spans="12:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="L2" s="7"/>
     </row>
-    <row r="3" ht="18.25" spans="2:11">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1556,7 +972,7 @@
         <v>46010</v>
       </c>
     </row>
-    <row r="4" ht="18.25" spans="2:11">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1576,7 +992,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" ht="18.25" spans="2:11">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1596,7 +1012,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" ht="18.25" spans="2:11">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1616,7 +1032,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" ht="18.25" spans="2:11">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +1052,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" ht="18.25" spans="2:11">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1658,7 +1074,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" ht="18.25" spans="2:11">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1678,7 +1094,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" ht="18.25" spans="2:11">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1698,7 +1114,7 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" ht="18.25" spans="2:11">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1718,7 +1134,7 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" ht="18.25" spans="2:11">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1738,7 +1154,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" ht="18.25" spans="2:11">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1174,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" ht="18.25" spans="2:11">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1778,7 +1194,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" ht="18.25" spans="2:11">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1798,63 +1214,69 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rLa9WIXV+ZhXFe4SFv1fDvq+uU527oOACKFgguIKO0G6oNc3ohgEUKvnCoFvJ5Ax5eo4LiCS5lEqDb0M1Y8q1Q==" saltValue="CIqr7nqcXApHL9tl79amHw==" spinCount="100000" sheet="1" objects="1"/>
+  <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"ONGOING"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"STANDBY"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K15">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND($B4="DONE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>AND($B4="ONGOING",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>AND($B4="STANDBY",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B5:B6 B7:B15">
-      <formula1>設定!$B$4:$B$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>設定!$B$4:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 B5:B6 B7:B15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="1"/>
-    <col min="2" max="2" width="20.0909090909091" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1818181818182" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54545454545454" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6363636363636" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.3636363636364" style="1"/>
-    <col min="8" max="16384" width="8.72727272727273" style="1"/>
+    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18.25" spans="12:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="L2" s="7"/>
     </row>
-    <row r="3" ht="18.25" spans="2:11">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1890,7 +1312,7 @@
         <v>46010</v>
       </c>
     </row>
-    <row r="4" ht="18.25" spans="2:11">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
@@ -1910,9 +1332,9 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" ht="18.25" spans="2:11">
+    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>21</v>
@@ -1922,7 +1344,7 @@
         <v>46007</v>
       </c>
       <c r="F5" s="6">
-        <v>46009</v>
+        <v>46008</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1930,12 +1352,12 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" ht="18.25" spans="2:11">
+    <row r="6" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6">
@@ -1950,14 +1372,16 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" ht="18.25" spans="2:11">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E7" s="6">
         <v>46007</v>
       </c>
@@ -1970,16 +1394,14 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" ht="18.25" spans="2:11">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="6">
         <v>46007</v>
       </c>
@@ -1992,19 +1414,19 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" ht="18.25" spans="2:11">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6">
-        <v>46007</v>
+        <v>46008</v>
       </c>
       <c r="F9" s="6">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2012,12 +1434,12 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" ht="18.25" spans="2:11">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6">
@@ -2032,12 +1454,12 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" ht="18.25" spans="2:11">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6">
@@ -2052,12 +1474,12 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" ht="18.25" spans="2:11">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6">
@@ -2072,12 +1494,12 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" ht="18.25" spans="2:11">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6">
@@ -2092,16 +1514,14 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" ht="18.25" spans="2:11">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="F14" s="6">
         <v>46010</v>
@@ -2112,91 +1532,79 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" ht="18.25" spans="2:11">
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6">
-        <v>46007</v>
-      </c>
-      <c r="F15" s="6">
-        <v>46010</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B15">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <phoneticPr fontId="4"/>
+  <conditionalFormatting sqref="B4:B14">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"ONGOING"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"STANDBY"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"ONGOING"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:K14">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND($B4="DONE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"DONE"</formula>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND($B4="ONGOING",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>AND($B4="STANDBY",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:K15">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND($B4="STANDBY",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND($B4="ONGOING",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND($B4="DONE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4 B5:B6 B7:B15">
-      <formula1>設定!$B$4:$B$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>設定!$B$4:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 B5 B6:B14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 

--- a/TaskManager.xlsx
+++ b/TaskManager.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktc\Documents\GitHub\behaviour-tree-programming-juugyou\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6B4537-BDA7-47CC-BC14-65F041C9E149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24750" windowHeight="12000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -19,11 +13,24 @@
     <sheet name="設定" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>提出締切</t>
   </si>
@@ -40,6 +47,9 @@
     <t>ジェフとれヴォルアーチ</t>
   </si>
   <si>
+    <t>hour:minute</t>
+  </si>
+  <si>
     <t>課題：</t>
   </si>
   <si>
@@ -125,6 +135,18 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>LATE</t>
+  </si>
+  <si>
+    <t>もういらない、プレイヤーに入れる</t>
+  </si>
+  <si>
+    <t>2分超えて、ゲームクリア</t>
+  </si>
+  <si>
+    <t>5分が長すぎて2分に変更された</t>
   </si>
   <si>
     <t>ONGOING</t>
@@ -133,18 +155,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="m/d;@"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -152,7 +178,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -160,7 +185,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -168,18 +192,161 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Yu Gothic UI"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,18 +355,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -261,6 +614,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -347,13 +709,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,48 +1000,99 @@
     <xf numFmtId="22" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFA5A5"/>
+          <bgColor rgb="FF71F828"/>
         </patternFill>
       </fill>
     </dxf>
@@ -451,14 +1106,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF86F450"/>
+          <bgColor rgb="FFFF8B8B"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF8B8B"/>
+          <bgColor rgb="FF86F450"/>
         </patternFill>
       </fill>
     </dxf>
@@ -472,28 +1127,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF71F828"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <bgColor rgb="FFFFA5A5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF86F450"/>
         </patternFill>
       </fill>
     </dxf>
@@ -506,36 +1140,71 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF71F828"/>
+          <bgColor rgb="FFFFA5A5"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <strike val="1"/>
+        <u val="single"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF4DD60C"/>
-      <color rgb="FFFFA5A5"/>
-      <color rgb="FFF85208"/>
-      <color rgb="FFFF8B8B"/>
-      <color rgb="FF71F828"/>
-      <color rgb="FF86F450"/>
+      <color rgb="004DD60C"/>
+      <color rgb="00FFA5A5"/>
+      <color rgb="00F85208"/>
+      <color rgb="00FF8B8B"/>
+      <color rgb="0071F828"/>
+      <color rgb="0086F450"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -793,30 +1462,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.8727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7545454545455" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3727272727273" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="1" ht="18.25" spans="2:7">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -829,128 +1498,133 @@
       <c r="F1" s="11"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" ht="18.25" spans="2:5">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="13" t="str">
         <f ca="1">_xlfn.CONCAT(C1-TODAY()," Day(s)")</f>
-        <v>2 Day(s)</v>
+        <v>0 Day(s)</v>
       </c>
       <c r="D2" s="14">
         <f ca="1">C1+D1-NOW()</f>
-        <v>2.2541927083293558</v>
+        <v>0.738206018519122</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" ht="18.25" spans="2:4">
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="20" t="s">
+    </row>
+    <row r="4" ht="18.25"/>
+    <row r="5" spans="2:3">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="20" t="s">
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="20" t="s">
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="21"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="20" t="s">
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="21"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="22" t="s">
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="21"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="22" t="s">
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="23" t="s">
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="24"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" ht="18.25" spans="2:3">
+      <c r="B13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="25"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75454545454545" style="1"/>
+    <col min="2" max="2" width="20.1272727272727" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1272727272727" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="15.6272727272727" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3727272727273" style="1"/>
+    <col min="8" max="16384" width="8.75454545454545" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" ht="18.25" spans="12:12">
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" ht="18.25" spans="2:11">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3">
         <v>46006</v>
@@ -972,12 +1646,12 @@
         <v>46010</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" ht="18.25" spans="2:11">
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6">
@@ -992,12 +1666,12 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" ht="18.25" spans="2:11">
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6">
@@ -1012,12 +1686,12 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" ht="18.25" spans="2:11">
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6">
@@ -1032,12 +1706,12 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" ht="18.25" spans="2:11">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="6">
@@ -1052,15 +1726,15 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" ht="18.25" spans="2:11">
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="6">
         <v>46007</v>
@@ -1074,12 +1748,12 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" ht="18.25" spans="2:11">
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6">
@@ -1094,12 +1768,12 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" ht="18.25" spans="2:11">
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6">
@@ -1114,12 +1788,12 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" ht="18.25" spans="2:11">
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="6">
@@ -1134,12 +1808,12 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" ht="18.25" spans="2:11">
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6">
@@ -1154,12 +1828,12 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" ht="18.25" spans="2:11">
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6">
@@ -1174,12 +1848,12 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" ht="18.25" spans="2:11">
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="6">
@@ -1194,9 +1868,9 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" ht="18.25" spans="2:11">
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1214,83 +1888,77 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rLa9WIXV+ZhXFe4SFv1fDvq+uU527oOACKFgguIKO0G6oNc3ohgEUKvnCoFvJ5Ax5eo4LiCS5lEqDb0M1Y8q1Q==" saltValue="CIqr7nqcXApHL9tl79amHw==" spinCount="100000" sheet="1" objects="1"/>
-  <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"ONGOING"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"STANDBY"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K15">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND($B4="DONE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>AND($B4="ONGOING",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND($B4="STANDBY",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4:B15">
+      <formula1>設定!$B$4:$B$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
-          <x14:formula1>
-            <xm:f>設定!$B$4:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4 B5:B6 B7:B15</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75454545454545" style="1"/>
+    <col min="2" max="2" width="20.1272727272727" style="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.2727272727273" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="15.6272727272727" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3727272727273" style="1"/>
+    <col min="8" max="16384" width="8.75454545454545" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" ht="18.25" spans="12:12">
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" ht="18.25" spans="2:11">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3">
         <v>46006</v>
@@ -1312,12 +1980,12 @@
         <v>46010</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" ht="18.25" spans="2:11">
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6">
@@ -1332,12 +2000,12 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" ht="18.25" spans="2:11">
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6">
@@ -1352,19 +2020,19 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" ht="18.25" spans="2:11">
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="6">
         <v>46007</v>
       </c>
       <c r="F6" s="6">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1372,21 +2040,21 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" ht="18.25" spans="2:11">
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="6">
         <v>46007</v>
       </c>
       <c r="F7" s="6">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1394,19 +2062,19 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" ht="18.25" spans="2:11">
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6">
         <v>46007</v>
       </c>
       <c r="F8" s="6">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1414,12 +2082,12 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" ht="18.25" spans="2:11">
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6">
@@ -1434,12 +2102,12 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" ht="18.25" spans="2:11">
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6">
@@ -1454,34 +2122,34 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" ht="18.25" spans="2:11">
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6">
-        <v>46008</v>
-      </c>
-      <c r="F11" s="6">
-        <v>46010</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" ht="18.25" spans="2:11">
       <c r="B12" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="E12" s="6">
         <v>46008</v>
       </c>
@@ -1494,12 +2162,12 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" ht="18.25" spans="2:11">
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="6">
@@ -1514,9 +2182,9 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" ht="18.25" spans="2:11">
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1533,78 +2201,83 @@
       <c r="K14" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"DONE"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"ONGOING"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"STANDBY"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"LATE"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:K14">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND($B4="DONE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>AND($B4="ONGOING",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>AND($B4="STANDBY",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>AND($B4="LATE",G$3&gt;=$E4,G$3&lt;=$F4)</formula>
+    </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4:B14">
+      <formula1>設定!$B$4:$B$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>設定!$B$4:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4 B5 B6:B14</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75454545454545" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>33</v>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
